--- a/nikon.xlsx
+++ b/nikon.xlsx
@@ -14,24 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>review</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>pred_single</t>
-  </si>
-  <si>
-    <t>pred_multiple</t>
-  </si>
-  <si>
-    <t>terms</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>f1</t>
   </si>
 </sst>
 </file>
@@ -389,13 +392,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,6 +416,113 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>113</v>
+      </c>
+      <c r="C2">
+        <v>385</v>
+      </c>
+      <c r="D2">
+        <v>38</v>
+      </c>
+      <c r="E2">
+        <v>163</v>
+      </c>
+      <c r="F2">
+        <v>0.7483443708609272</v>
+      </c>
+      <c r="G2">
+        <v>0.4094202898550725</v>
+      </c>
+      <c r="H2">
+        <v>0.5292740046838408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>178</v>
+      </c>
+      <c r="C3">
+        <v>261</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>252</v>
+      </c>
+      <c r="F3">
+        <v>0.956989247311828</v>
+      </c>
+      <c r="G3">
+        <v>0.413953488372093</v>
+      </c>
+      <c r="H3">
+        <v>0.5779220779220779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>54</v>
+      </c>
+      <c r="C4">
+        <v>454</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>190</v>
+      </c>
+      <c r="F4">
+        <v>0.9818181818181818</v>
+      </c>
+      <c r="G4">
+        <v>0.2213114754098361</v>
+      </c>
+      <c r="H4">
+        <v>0.3612040133779264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>97</v>
+      </c>
+      <c r="C5">
+        <v>381</v>
+      </c>
+      <c r="D5">
+        <v>131</v>
+      </c>
+      <c r="E5">
+        <v>90</v>
+      </c>
+      <c r="F5">
+        <v>0.4254385964912281</v>
+      </c>
+      <c r="G5">
+        <v>0.5187165775401069</v>
+      </c>
+      <c r="H5">
+        <v>0.4674698795180723</v>
       </c>
     </row>
   </sheetData>
